--- a/ig/carecommunication/StructureDefinition-medcom-careCommunication-provenance.xlsx
+++ b/ig/carecommunication/StructureDefinition-medcom-careCommunication-provenance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:20:03+01:00</t>
+    <t>2025-05-23T11:28:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1663,17 +1663,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.14453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.88671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.40234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="113.79296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1682,27 +1682,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.90625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="89.2421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="79.5625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="90.04296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="214.58203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.80859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="219.30859375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="35.390625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.9921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/carecommunication/StructureDefinition-medcom-careCommunication-provenance.xlsx
+++ b/ig/carecommunication/StructureDefinition-medcom-careCommunication-provenance.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T11:28:08+00:00</t>
+    <t>2025-10-27T14:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -374,7 +374,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -391,7 +391,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>The narrative text SHALL always be included when exchanging a MedCom FHIR Bundle.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -404,6 +404,109 @@
   </si>
   <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Provenance.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Provenance.text.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Provenance.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Provenance.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Provenance.contained</t>
@@ -429,34 +532,13 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Provenance.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Provenance.modifierExtension</t>
@@ -596,7 +678,7 @@
     <t>Provenance.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -640,7 +722,7 @@
     <t>The reason the activity took place.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -661,16 +743,13 @@
     <t>Provenance.activity</t>
   </si>
   <si>
-    <t>Activity that occurred</t>
+    <t>If the previous message is an EDIFACT or OIOXML message, the activity code must be reply-message</t>
   </si>
   <si>
     <t>Activity that occurred and triggered the current or a previous message</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-careCommunication-messagingActivities</t>
+    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-careCommunication-messagingActivities|1.8.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -682,39 +761,7 @@
     <t>Provenance.activity.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Provenance.activity.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Provenance.activity.coding</t>
@@ -941,7 +988,7 @@
     <t>The type of participation that a provenance agent played with respect to the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-agent-type</t>
+    <t>http://hl7.org/fhir/ValueSet/provenance-agent-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -974,7 +1021,7 @@
     <t>The role that a provenance agent played with respect to the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type|4.0.1</t>
   </si>
   <si>
     <t>.typecode</t>
@@ -1011,7 +1058,7 @@
     <t>Provenance.agent.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson|Patient|Device|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Patient|4.0.1|Device|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1061,7 +1108,7 @@
     <t>Provenance.entity.role</t>
   </si>
   <si>
-    <t>When a message is a response, a correction or a forwarding message the role shall be 'revision' and when the message is a cancellation the role shall be 'removal'.</t>
+    <t>derivation | revision | quotation | source | removal</t>
   </si>
   <si>
     <t>How the entity was used during the activity.</t>
@@ -1085,7 +1132,7 @@
     <t>Provenance.entity.what</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1113,7 +1160,7 @@
     <t>Provenance.entity.what.reference</t>
   </si>
   <si>
-    <t>If the previous message is a FHIR message, this element must hold the MessageHeader.id from previous message.</t>
+    <t>If the previous message is a FHIR message, this element must hold the MessageHeader.id from previous message, formatted as MessageHeader/[id].</t>
   </si>
   <si>
     <t>Shall contain the message header id of messages given as input to the activity</t>
@@ -1145,7 +1192,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1654,7 +1701,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AO81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1663,17 +1710,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.40234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="113.79296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.55859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1682,27 +1729,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.5625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="90.04296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.2109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.7265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="219.30859375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="35.390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.9921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="188.015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="30.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.57421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1966,7 +2013,7 @@
         <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>80</v>
@@ -2539,14 +2586,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>80</v>
@@ -2558,17 +2605,15 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>131</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>80</v>
@@ -2617,13 +2662,13 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>80</v>
@@ -2635,7 +2680,7 @@
         <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>80</v>
@@ -2649,14 +2694,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2675,16 +2720,16 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2722,19 +2767,19 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2746,13 +2791,13 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>80</v>
@@ -2766,46 +2811,42 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>145</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -2829,13 +2870,13 @@
         <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>80</v>
@@ -2853,25 +2894,25 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>80</v>
@@ -2885,10 +2926,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2908,19 +2949,19 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2970,53 +3011,53 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3028,16 +3069,16 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3075,41 +3116,43 @@
         <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AC12" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>80</v>
@@ -3117,26 +3160,24 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>80</v>
@@ -3145,16 +3186,16 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3204,31 +3245,31 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -3236,44 +3277,46 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3321,42 +3364,42 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3364,31 +3407,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3438,10 +3481,10 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
@@ -3456,24 +3499,24 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3481,13 +3524,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>80</v>
@@ -3496,15 +3539,17 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3541,19 +3586,17 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3580,29 +3623,31 @@
         <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
@@ -3611,15 +3656,17 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3644,13 +3691,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3668,13 +3715,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -3683,27 +3730,27 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3723,18 +3770,20 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3759,11 +3808,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -3781,10 +3832,10 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
@@ -3796,27 +3847,27 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3827,7 +3878,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3839,15 +3890,17 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -3896,25 +3949,25 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -3923,26 +3976,26 @@
         <v>80</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -3954,17 +4007,15 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4001,54 +4052,54 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AM20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AO20" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4056,35 +4107,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4108,13 +4155,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4132,7 +4179,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4147,27 +4194,27 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4175,13 +4222,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
@@ -4190,13 +4237,13 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4223,13 +4270,11 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4247,7 +4292,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4259,19 +4304,19 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4279,21 +4324,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4305,17 +4350,15 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4352,37 +4395,37 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4396,21 +4439,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4419,23 +4462,21 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4471,37 +4512,37 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4515,10 +4556,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4526,13 +4567,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
@@ -4541,18 +4582,20 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4606,7 +4649,7 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4643,33 +4686,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>251</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4717,7 +4758,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4729,13 +4770,13 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4749,21 +4790,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4772,21 +4813,21 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4822,37 +4863,37 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>131</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -4866,10 +4907,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4877,13 +4918,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
@@ -4892,19 +4933,19 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -4953,7 +4994,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4971,7 +5012,7 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -4985,10 +5026,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5011,20 +5052,18 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5072,7 +5111,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5090,7 +5129,7 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5104,10 +5143,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5118,7 +5157,7 @@
         <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>91</v>
@@ -5127,22 +5166,20 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5191,13 +5228,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5206,27 +5243,27 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5246,19 +5283,21 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5306,7 +5345,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5318,13 +5357,13 @@
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5338,21 +5377,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5361,21 +5400,23 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>137</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5423,25 +5464,25 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5455,45 +5496,45 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5542,25 +5583,25 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5574,10 +5615,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5585,33 +5626,35 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5635,13 +5678,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5659,13 +5702,13 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
@@ -5674,27 +5717,27 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5705,7 +5748,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5717,17 +5760,15 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5752,13 +5793,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5776,25 +5817,25 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -5803,47 +5844,47 @@
         <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>316</v>
+        <v>137</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5893,31 +5934,31 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>141</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -5925,44 +5966,46 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6010,25 +6053,25 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6042,10 +6085,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6053,30 +6096,32 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6101,35 +6146,37 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6138,27 +6185,27 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6169,7 +6216,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6181,15 +6228,17 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6214,13 +6263,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6238,25 +6287,25 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>218</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6265,47 +6314,47 @@
         <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>139</v>
+        <v>331</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6355,31 +6404,31 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>224</v>
+        <v>327</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>218</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6394,39 +6443,37 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>136</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6474,25 +6521,25 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6506,10 +6553,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6520,7 +6567,7 @@
         <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>91</v>
@@ -6529,16 +6576,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6565,37 +6612,35 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -6607,24 +6652,24 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6632,32 +6677,30 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>127</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>128</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -6706,10 +6749,10 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>344</v>
+        <v>130</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>90</v>
@@ -6718,41 +6761,41 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6764,15 +6807,17 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -6821,25 +6866,25 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -6853,14 +6898,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6873,24 +6918,26 @@
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -6926,19 +6973,19 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6950,13 +6997,13 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -6970,10 +7017,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6981,7 +7028,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -6996,17 +7043,15 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7031,13 +7076,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7055,16 +7100,16 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>102</v>
@@ -7073,16 +7118,16 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -7098,13 +7143,13 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>80</v>
@@ -7113,16 +7158,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7148,13 +7193,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7172,10 +7217,10 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>90</v>
@@ -7190,16 +7235,16 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>133</v>
+        <v>364</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -7221,26 +7266,24 @@
         <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
+        <v>128</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7289,7 +7332,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>371</v>
+        <v>130</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7301,13 +7344,13 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>372</v>
+        <v>131</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7321,21 +7364,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7344,19 +7387,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>376</v>
+        <v>137</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7394,37 +7437,37 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>377</v>
+        <v>141</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7438,10 +7481,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7452,28 +7495,28 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7523,16 +7566,16 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>102</v>
@@ -7541,7 +7584,7 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>150</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7555,14 +7598,12 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7574,24 +7615,26 @@
         <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7616,13 +7659,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -7640,13 +7683,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -7658,24 +7701,24 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7689,24 +7732,26 @@
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>215</v>
+        <v>383</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7755,7 +7800,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7767,13 +7812,13 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>218</v>
+        <v>387</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7787,21 +7832,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -7810,19 +7855,19 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>137</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7872,25 +7917,25 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>224</v>
+        <v>392</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -7904,14 +7949,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7924,26 +7969,24 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>290</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>291</v>
+        <v>395</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -7991,7 +8034,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>292</v>
+        <v>393</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8003,13 +8046,13 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>133</v>
+        <v>397</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8023,18 +8066,20 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>90</v>
@@ -8046,16 +8091,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8067,7 +8112,7 @@
         <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>80</v>
@@ -8082,13 +8127,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8106,13 +8151,13 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8124,24 +8169,24 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8149,32 +8194,30 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>345</v>
+        <v>127</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>393</v>
+        <v>128</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8223,10 +8266,10 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>344</v>
+        <v>130</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>90</v>
@@ -8235,41 +8278,41 @@
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8281,15 +8324,17 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8338,25 +8383,25 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8370,14 +8415,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8390,24 +8435,26 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8443,19 +8490,19 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8467,13 +8514,13 @@
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8487,10 +8534,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8498,7 +8545,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>90</v>
@@ -8513,17 +8560,15 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8533,7 +8578,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -8548,13 +8593,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8572,16 +8617,16 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
@@ -8590,21 +8635,21 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>359</v>
@@ -8615,13 +8660,13 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
@@ -8630,16 +8675,16 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8665,13 +8710,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8689,10 +8734,10 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>90</v>
@@ -8707,21 +8752,21 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>133</v>
+        <v>364</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>366</v>
@@ -8738,26 +8783,24 @@
         <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>400</v>
+        <v>128</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8806,7 +8849,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>371</v>
+        <v>130</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8818,13 +8861,13 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>372</v>
+        <v>131</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -8838,21 +8881,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -8861,19 +8904,19 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>376</v>
+        <v>137</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8911,37 +8954,37 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>377</v>
+        <v>141</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -8955,10 +8998,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8969,28 +9012,28 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9040,16 +9083,16 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>102</v>
@@ -9058,7 +9101,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>382</v>
+        <v>150</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9072,43 +9115,43 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K64" t="s" s="2">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9133,13 +9176,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9157,13 +9200,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -9175,24 +9218,24 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9206,24 +9249,26 @@
         <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>215</v>
+        <v>415</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9272,7 +9317,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9284,13 +9329,13 @@
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>218</v>
+        <v>387</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9304,21 +9349,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9327,19 +9372,19 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>137</v>
+        <v>389</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9389,25 +9434,25 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>224</v>
+        <v>392</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9421,14 +9466,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9441,26 +9486,24 @@
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>290</v>
+        <v>394</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>291</v>
+        <v>395</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9508,7 +9551,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>292</v>
+        <v>393</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9520,13 +9563,13 @@
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>133</v>
+        <v>397</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9540,12 +9583,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9554,7 +9599,7 @@
         <v>90</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>91</v>
@@ -9563,16 +9608,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9584,7 +9629,7 @@
         <v>80</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>80</v>
@@ -9599,13 +9644,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -9623,13 +9668,13 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -9641,24 +9686,24 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9666,32 +9711,30 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>345</v>
+        <v>127</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>413</v>
+        <v>128</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -9740,10 +9783,10 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>344</v>
+        <v>130</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>90</v>
@@ -9752,41 +9795,41 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -9798,15 +9841,17 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -9855,25 +9900,25 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -9887,14 +9932,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9907,24 +9952,26 @@
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -9960,19 +10007,19 @@
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9984,13 +10031,13 @@
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10004,10 +10051,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10015,7 +10062,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>90</v>
@@ -10030,17 +10077,15 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10050,7 +10095,7 @@
         <v>80</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>80</v>
@@ -10065,13 +10110,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10089,16 +10134,16 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>102</v>
@@ -10107,21 +10152,21 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>359</v>
@@ -10132,13 +10177,13 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>80</v>
@@ -10147,16 +10192,16 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10182,13 +10227,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10206,10 +10251,10 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>90</v>
@@ -10224,21 +10269,21 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>133</v>
+        <v>364</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>366</v>
@@ -10249,32 +10294,30 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>419</v>
+        <v>128</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10323,7 +10366,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>371</v>
+        <v>130</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10335,13 +10378,13 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>372</v>
+        <v>131</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10355,21 +10398,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10378,19 +10421,19 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>376</v>
+        <v>137</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10428,37 +10471,37 @@
         <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>377</v>
+        <v>141</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10472,10 +10515,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10486,28 +10529,28 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10557,16 +10600,16 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>102</v>
@@ -10575,7 +10618,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>382</v>
+        <v>150</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -10589,10 +10632,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10603,7 +10646,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -10612,18 +10655,20 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>423</v>
+        <v>104</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -10648,13 +10693,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -10672,13 +10717,13 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
@@ -10690,7 +10735,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>426</v>
+        <v>150</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -10699,11 +10744,477 @@
         <v>80</v>
       </c>
       <c r="AO77" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO77">
+  <autoFilter ref="A1:AO81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10713,7 +11224,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/carecommunication/StructureDefinition-medcom-careCommunication-provenance.xlsx
+++ b/ig/carecommunication/StructureDefinition-medcom-careCommunication-provenance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T14:45:58+00:00</t>
+    <t>2025-10-29T10:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
